--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ACB67E-7729-403F-A48A-F4025542979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
@@ -57,7 +57,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Actual/360 convention</t>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
         </r>
       </text>
     </comment>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -162,10 +163,25 @@
     <t>bootstrap</t>
   </si>
   <si>
-    <t>use \fi.bootstrap</t>
-  </si>
-  <si>
     <t>use \fi.zero cupon bond</t>
+  </si>
+  <si>
+    <t>use \fi.ucurve.bootstrap</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>insert graph</t>
+  </si>
+  <si>
+    <t>plot curve here using pwflate.spot, forward</t>
   </si>
 </sst>
 </file>
@@ -174,7 +190,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -268,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,7 +698,7 @@
   <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:P7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2335,15 +2351,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2360,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2379,10 +2393,10 @@
         <v>0.99999141203703701</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2400,27 +2414,39 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f>2/12</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D5">
         <v>3.73E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99999136574074077</v>
+        <v>0.99998273148148153</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2438,8 +2464,15 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2457,8 +2490,14 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2476,8 +2515,11 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2494,8 +2536,14 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2511,8 +2559,11 @@
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2528,8 +2579,11 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2545,8 +2599,11 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2562,8 +2619,11 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2579,8 +2639,11 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2596,8 +2659,11 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2612,6 +2678,299 @@
       </c>
       <c r="F16" t="s">
         <v>21</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172BC65D-B429-4A01-B106-121FD3E30CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Bootstrap" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,12 +63,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{CC765612-A6BE-4AFF-8F97-5CAF663B3F29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{EB323A08-480B-4660-BD9D-32CBEDA882BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{F208D393-0CBA-4B27-99FE-4A3D15031DE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{71B4ADD3-0A9D-4432-81B5-9A1828AC3CD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{499814B2-018C-4259-AED8-658BC70FA403}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{590E94A9-623B-42F1-AB1B-D6AFB73F28DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Actual/360 convention
+Check T-Bill quoting conventions.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,15 +180,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
   <si>
     <t>Add examples for \FI.INSTURMENT, FI.INSTRUMENT, FI.INTRUMENT.ZERO_COUPON_BOND, and FI.INSTRUMENT.BOND</t>
-  </si>
-  <si>
-    <t>Add examples for \FI.CURVE.PWFLAT and FI.CURVE.PWFLAT</t>
   </si>
   <si>
     <t>1 Mo</t>
@@ -151,22 +239,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
-  </si>
-  <si>
-    <t>use \fi.ucurve.bootstrap</t>
   </si>
   <si>
     <t>t</t>
@@ -182,6 +258,24 @@
   </si>
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
+  </si>
+  <si>
+    <t>Add examples for \FI.CURVE.PWFLAT, FI.CURVE.PWFLAT, FI.CURVE.DISCOUNT, FI.CURVE.SPOT, FI.CURVE.FORWARD</t>
+  </si>
+  <si>
+    <t>\instrument</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>zero_coupon_bond</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>\curve.pwflat</t>
   </si>
 </sst>
 </file>
@@ -275,7 +369,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -695,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -712,6 +809,10 @@
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/24/2026,3.72,3.75,3.73,3.69,3.70,3.62,3.52,3.43,3.47,3.61,3.81,4.04,4.63,4.70
+02/23/2026,3.72,3.74,3.74,3.69,3.70,3.62,3.50,3.43,3.45,3.59,3.79,4.03,4.63,4.70
+02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
+02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
 02/17/2026,3.72,3.75,3.73,3.69,3.70,3.59,3.48,3.43,3.47,3.63,3.82,4.05,4.63,4.68
 02/13/2026,3.72,3.71,3.73,3.68,3.70,3.59,3.42,3.40,3.43,3.61,3.81,4.04,4.64,4.69
@@ -748,7 +849,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P42">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -796,63 +897,63 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="str">
-        <v>02/18/2026</v>
+        <v>02/24/2026</v>
       </c>
       <c r="C7" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D7" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="E7" t="str">
         <v>3.73</v>
       </c>
       <c r="F7" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G7" t="str">
         <v>3.70</v>
       </c>
       <c r="H7" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="I7" t="str">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="J7" t="str">
+        <v>3.43</v>
+      </c>
+      <c r="K7" t="str">
         <v>3.47</v>
       </c>
-      <c r="K7" t="str">
-        <v>3.50</v>
-      </c>
       <c r="L7" t="str">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="M7" t="str">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="N7" t="str">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="O7" t="str">
-        <v>4.65</v>
+        <v>4.63</v>
       </c>
       <c r="P7" t="str">
-        <v>4.71</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="str">
-        <v>02/17/2026</v>
+        <v>02/23/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="E8" t="str">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
@@ -861,136 +962,136 @@
         <v>3.70</v>
       </c>
       <c r="H8" t="str">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
       <c r="I8" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J8" t="str">
         <v>3.43</v>
       </c>
       <c r="K8" t="str">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="str">
-        <v>3.63</v>
+        <v>3.59</v>
       </c>
       <c r="M8" t="str">
-        <v>3.82</v>
+        <v>3.79</v>
       </c>
       <c r="N8" t="str">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="O8" t="str">
         <v>4.63</v>
       </c>
       <c r="P8" t="str">
-        <v>4.68</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="str">
-        <v>02/13/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C9" t="str">
         <v>3.72</v>
       </c>
       <c r="D9" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E9" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G9" t="str">
         <v>3.71</v>
       </c>
-      <c r="E9" t="str">
-        <v>3.73</v>
-      </c>
-      <c r="F9" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="G9" t="str">
-        <v>3.70</v>
-      </c>
       <c r="H9" t="str">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="I9" t="str">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="J9" t="str">
-        <v>3.40</v>
+        <v>3.48</v>
       </c>
       <c r="K9" t="str">
-        <v>3.43</v>
+        <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
       <c r="M9" t="str">
-        <v>3.81</v>
+        <v>3.85</v>
       </c>
       <c r="N9" t="str">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="O9" t="str">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="P9" t="str">
-        <v>4.69</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="str">
-        <v>02/12/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C10" t="str">
         <v>3.72</v>
       </c>
       <c r="D10" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E10" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="F10" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I10" t="str">
-        <v>3.45</v>
+        <v>3.50</v>
       </c>
       <c r="J10" t="str">
         <v>3.47</v>
       </c>
       <c r="K10" t="str">
-        <v>3.49</v>
+        <v>3.50</v>
       </c>
       <c r="L10" t="str">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="str">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="N10" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O10" t="str">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="P10" t="str">
-        <v>4.72</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="str">
-        <v>02/11/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C11" t="str">
         <v>3.71</v>
       </c>
       <c r="D11" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E11" t="str">
         <v>3.73</v>
@@ -1005,92 +1106,92 @@
         <v>3.60</v>
       </c>
       <c r="I11" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="J11" t="str">
         <v>3.47</v>
       </c>
-      <c r="J11" t="str">
-        <v>3.52</v>
-      </c>
       <c r="K11" t="str">
-        <v>3.55</v>
+        <v>3.50</v>
       </c>
       <c r="L11" t="str">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="M11" t="str">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="N11" t="str">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="O11" t="str">
-        <v>4.76</v>
+        <v>4.65</v>
       </c>
       <c r="P11" t="str">
-        <v>4.82</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="str">
-        <v>02/10/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
       </c>
       <c r="D12" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="E12" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F12" t="str">
         <v>3.69</v>
       </c>
       <c r="G12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H12" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I12" t="str">
-        <v>3.40</v>
+        <v>3.48</v>
       </c>
       <c r="J12" t="str">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="K12" t="str">
-        <v>3.50</v>
+        <v>3.47</v>
       </c>
       <c r="L12" t="str">
-        <v>3.70</v>
+        <v>3.63</v>
       </c>
       <c r="M12" t="str">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="N12" t="str">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="O12" t="str">
-        <v>4.73</v>
+        <v>4.63</v>
       </c>
       <c r="P12" t="str">
-        <v>4.78</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="str">
-        <v>02/09/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C13" t="str">
         <v>3.72</v>
       </c>
       <c r="D13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E13" t="str">
         <v>3.73</v>
       </c>
       <c r="F13" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G13" t="str">
         <v>3.70</v>
@@ -1099,127 +1200,127 @@
         <v>3.59</v>
       </c>
       <c r="I13" t="str">
+        <v>3.42</v>
+      </c>
+      <c r="J13" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="K13" t="str">
         <v>3.43</v>
       </c>
-      <c r="J13" t="str">
-        <v>3.48</v>
-      </c>
-      <c r="K13" t="str">
-        <v>3.56</v>
-      </c>
       <c r="L13" t="str">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M13" t="str">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="N13" t="str">
-        <v>4.22</v>
+        <v>4.04</v>
       </c>
       <c r="O13" t="str">
-        <v>4.79</v>
+        <v>4.64</v>
       </c>
       <c r="P13" t="str">
-        <v>4.85</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="str">
-        <v>02/06/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C14" t="str">
         <v>3.72</v>
       </c>
       <c r="D14" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E14" t="str">
         <v>3.74</v>
       </c>
       <c r="F14" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="G14" t="str">
         <v>3.70</v>
       </c>
       <c r="H14" t="str">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="I14" t="str">
         <v>3.45</v>
       </c>
       <c r="J14" t="str">
-        <v>3.50</v>
+        <v>3.47</v>
       </c>
       <c r="K14" t="str">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="L14" t="str">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="M14" t="str">
-        <v>3.98</v>
+        <v>3.87</v>
       </c>
       <c r="N14" t="str">
-        <v>4.22</v>
+        <v>4.09</v>
       </c>
       <c r="O14" t="str">
-        <v>4.80</v>
+        <v>4.68</v>
       </c>
       <c r="P14" t="str">
-        <v>4.85</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="str">
-        <v>02/05/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C15" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D15" t="str">
         <v>3.71</v>
       </c>
       <c r="E15" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F15" t="str">
-        <v>3.67</v>
+        <v>3.70</v>
       </c>
       <c r="G15" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H15" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I15" t="str">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="J15" t="str">
-        <v>3.47</v>
+        <v>3.52</v>
       </c>
       <c r="K15" t="str">
         <v>3.55</v>
       </c>
       <c r="L15" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="str">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="N15" t="str">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="O15" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P15" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="str">
-        <v>02/04/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -1234,39 +1335,39 @@
         <v>3.69</v>
       </c>
       <c r="G16" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H16" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I16" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J16" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L16" t="str">
         <v>3.70</v>
       </c>
-      <c r="H16" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="I16" t="str">
-        <v>3.49</v>
-      </c>
-      <c r="J16" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="K16" t="str">
-        <v>3.64</v>
-      </c>
-      <c r="L16" t="str">
-        <v>3.83</v>
-      </c>
       <c r="M16" t="str">
-        <v>4.05</v>
+        <v>3.92</v>
       </c>
       <c r="N16" t="str">
-        <v>4.29</v>
+        <v>4.16</v>
       </c>
       <c r="O16" t="str">
-        <v>4.86</v>
+        <v>4.73</v>
       </c>
       <c r="P16" t="str">
-        <v>4.91</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="str">
-        <v>02/03/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
@@ -1275,7 +1376,7 @@
         <v>3.72</v>
       </c>
       <c r="E17" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F17" t="str">
         <v>3.69</v>
@@ -1284,36 +1385,36 @@
         <v>3.70</v>
       </c>
       <c r="H17" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I17" t="str">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="J17" t="str">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="K17" t="str">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="L17" t="str">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="str">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="N17" t="str">
-        <v>4.28</v>
+        <v>4.22</v>
       </c>
       <c r="O17" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P17" t="str">
         <v>4.85</v>
-      </c>
-      <c r="P17" t="str">
-        <v>4.90</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="str">
-        <v>02/02/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
@@ -1325,354 +1426,354 @@
         <v>3.74</v>
       </c>
       <c r="F18" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G18" t="str">
         <v>3.70</v>
       </c>
       <c r="H18" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I18" t="str">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="K18" t="str">
         <v>3.57</v>
       </c>
-      <c r="K18" t="str">
-        <v>3.64</v>
-      </c>
       <c r="L18" t="str">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="M18" t="str">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="N18" t="str">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="O18" t="str">
+        <v>4.80</v>
+      </c>
+      <c r="P18" t="str">
         <v>4.85</v>
-      </c>
-      <c r="P18" t="str">
-        <v>4.90</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="str">
-        <v>01/30/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
       </c>
       <c r="D19" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E19" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F19" t="str">
         <v>3.67</v>
       </c>
       <c r="G19" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="H19" t="str">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="I19" t="str">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="J19" t="str">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
       <c r="K19" t="str">
-        <v>3.60</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="str">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="M19" t="str">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="N19" t="str">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="O19" t="str">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="P19" t="str">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="str">
-        <v>01/29/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
       </c>
       <c r="D20" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E20" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F20" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H20" t="str">
         <v>3.62</v>
       </c>
       <c r="I20" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J20" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K20" t="str">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="L20" t="str">
-        <v>3.80</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="str">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="N20" t="str">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="O20" t="str">
-        <v>4.80</v>
+        <v>4.86</v>
       </c>
       <c r="P20" t="str">
-        <v>4.85</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="str">
-        <v>01/28/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C21" t="str">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="D21" t="str">
         <v>3.72</v>
       </c>
       <c r="E21" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="F21" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G21" t="str">
         <v>3.70</v>
       </c>
       <c r="H21" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="I21" t="str">
-        <v>3.52</v>
+        <v>3.49</v>
       </c>
       <c r="J21" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="K21" t="str">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="L21" t="str">
         <v>3.83</v>
       </c>
       <c r="M21" t="str">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="N21" t="str">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O21" t="str">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="P21" t="str">
-        <v>4.85</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="str">
-        <v>01/27/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C22" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D22" t="str">
         <v>3.72</v>
       </c>
       <c r="E22" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F22" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G22" t="str">
         <v>3.70</v>
       </c>
-      <c r="F22" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G22" t="str">
-        <v>3.66</v>
-      </c>
       <c r="H22" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I22" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J22" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K22" t="str">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="L22" t="str">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="M22" t="str">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="N22" t="str">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="O22" t="str">
-        <v>4.79</v>
+        <v>4.85</v>
       </c>
       <c r="P22" t="str">
-        <v>4.83</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="str">
-        <v>01/26/2026</v>
+        <v>01/30/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D23" t="str">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="E23" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="F23" t="str">
         <v>3.67</v>
       </c>
       <c r="G23" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="H23" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I23" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J23" t="str">
         <v>3.52</v>
       </c>
-      <c r="J23" t="str">
-        <v>3.56</v>
-      </c>
       <c r="K23" t="str">
-        <v>3.66</v>
+        <v>3.60</v>
       </c>
       <c r="L23" t="str">
-        <v>3.82</v>
+        <v>3.79</v>
       </c>
       <c r="M23" t="str">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="N23" t="str">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="str">
-        <v>4.75</v>
+        <v>4.82</v>
       </c>
       <c r="P23" t="str">
-        <v>4.80</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="str">
-        <v>01/23/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="D24" t="str">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="E24" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="F24" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G24" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="H24" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I24" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J24" t="str">
         <v>3.53</v>
       </c>
-      <c r="J24" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K24" t="str">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="L24" t="str">
-        <v>3.84</v>
+        <v>3.80</v>
       </c>
       <c r="M24" t="str">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="N24" t="str">
         <v>4.24</v>
       </c>
       <c r="O24" t="str">
-        <v>4.78</v>
+        <v>4.80</v>
       </c>
       <c r="P24" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="str">
-        <v>01/22/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C25" t="str">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="D25" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E25" t="str">
         <v>3.71</v>
       </c>
-      <c r="E25" t="str">
-        <v>3.72</v>
-      </c>
       <c r="F25" t="str">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="G25" t="str">
-        <v>3.67</v>
+        <v>3.70</v>
       </c>
       <c r="H25" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="I25" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J25" t="str">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="str">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="M25" t="str">
         <v>4.05</v>
@@ -1681,336 +1782,336 @@
         <v>4.26</v>
       </c>
       <c r="O25" t="str">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="P25" t="str">
-        <v>4.84</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="str">
-        <v>01/21/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="D26" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E26" t="str">
         <v>3.70</v>
       </c>
       <c r="F26" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G26" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H26" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J26" t="str">
         <v>3.53</v>
       </c>
-      <c r="J26" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K26" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="str">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="M26" t="str">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N26" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O26" t="str">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="P26" t="str">
-        <v>4.87</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="str">
-        <v>01/20/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
       </c>
       <c r="E27" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="F27" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G27" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H27" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I27" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J27" t="str">
-        <v>3.60</v>
+        <v>3.56</v>
       </c>
       <c r="K27" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L27" t="str">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="M27" t="str">
-        <v>4.08</v>
+        <v>4.02</v>
       </c>
       <c r="N27" t="str">
-        <v>4.30</v>
+        <v>4.22</v>
       </c>
       <c r="O27" t="str">
-        <v>4.87</v>
+        <v>4.75</v>
       </c>
       <c r="P27" t="str">
-        <v>4.91</v>
+        <v>4.80</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="str">
-        <v>01/16/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C28" t="str">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D28" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E28" t="str">
         <v>3.72</v>
       </c>
-      <c r="E28" t="str">
-        <v>3.68</v>
-      </c>
       <c r="F28" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G28" t="str">
         <v>3.67</v>
       </c>
-      <c r="G28" t="str">
-        <v>3.66</v>
-      </c>
       <c r="H28" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J28" t="str">
         <v>3.60</v>
-      </c>
-      <c r="I28" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J28" t="str">
-        <v>3.59</v>
       </c>
       <c r="K28" t="str">
         <v>3.67</v>
       </c>
       <c r="L28" t="str">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="M28" t="str">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="N28" t="str">
         <v>4.24</v>
       </c>
       <c r="O28" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P28" t="str">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="str">
-        <v>01/15/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C29" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D29" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E29" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="F29" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="G29" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="K29" t="str">
         <v>3.68</v>
       </c>
-      <c r="G29" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H29" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I29" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="J29" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K29" t="str">
-        <v>3.62</v>
-      </c>
       <c r="L29" t="str">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="M29" t="str">
-        <v>3.96</v>
+        <v>4.05</v>
       </c>
       <c r="N29" t="str">
-        <v>4.17</v>
+        <v>4.26</v>
       </c>
       <c r="O29" t="str">
-        <v>4.74</v>
+        <v>4.79</v>
       </c>
       <c r="P29" t="str">
-        <v>4.79</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="str">
-        <v>01/14/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C30" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="D30" t="str">
         <v>3.71</v>
       </c>
       <c r="E30" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G30" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="H30" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I30" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J30" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K30" t="str">
         <v>3.66</v>
       </c>
-      <c r="F30" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G30" t="str">
-        <v>3.65</v>
-      </c>
-      <c r="H30" t="str">
-        <v>3.58</v>
-      </c>
-      <c r="I30" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="J30" t="str">
-        <v>3.51</v>
-      </c>
-      <c r="K30" t="str">
-        <v>3.56</v>
-      </c>
       <c r="L30" t="str">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="M30" t="str">
-        <v>3.92</v>
+        <v>4.04</v>
       </c>
       <c r="N30" t="str">
-        <v>4.15</v>
+        <v>4.26</v>
       </c>
       <c r="O30" t="str">
-        <v>4.73</v>
+        <v>4.82</v>
       </c>
       <c r="P30" t="str">
-        <v>4.79</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="str">
-        <v>01/13/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C31" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="D31" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E31" t="str">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="F31" t="str">
-        <v>3.67</v>
+        <v>3.70</v>
       </c>
       <c r="G31" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H31" t="str">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="I31" t="str">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="J31" t="str">
-        <v>3.53</v>
+        <v>3.60</v>
       </c>
       <c r="K31" t="str">
-        <v>3.57</v>
+        <v>3.68</v>
       </c>
       <c r="L31" t="str">
-        <v>3.75</v>
+        <v>3.86</v>
       </c>
       <c r="M31" t="str">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="N31" t="str">
-        <v>4.18</v>
+        <v>4.30</v>
       </c>
       <c r="O31" t="str">
-        <v>4.77</v>
+        <v>4.87</v>
       </c>
       <c r="P31" t="str">
-        <v>4.83</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="str">
-        <v>01/12/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C32" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="D32" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E32" t="str">
         <v>3.68</v>
-      </c>
-      <c r="E32" t="str">
-        <v>3.64</v>
       </c>
       <c r="F32" t="str">
         <v>3.67</v>
       </c>
       <c r="G32" t="str">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="H32" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I32" t="str">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="str">
-        <v>3.54</v>
+        <v>3.59</v>
       </c>
       <c r="K32" t="str">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="L32" t="str">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="M32" t="str">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="N32" t="str">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
       <c r="O32" t="str">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="P32" t="str">
         <v>4.83</v>
@@ -2018,269 +2119,269 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="str">
-        <v>01/09/2026</v>
+        <v>01/15/2026</v>
       </c>
       <c r="C33" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="D33" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E33" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F33" t="str">
         <v>3.68</v>
       </c>
-      <c r="E33" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="J33" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="K33" t="str">
         <v>3.62</v>
       </c>
-      <c r="G33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="H33" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="I33" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J33" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K33" t="str">
-        <v>3.59</v>
-      </c>
       <c r="L33" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="M33" t="str">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N33" t="str">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="O33" t="str">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="P33" t="str">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="str">
-        <v>01/08/2026</v>
+        <v>01/14/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="D34" t="str">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="E34" t="str">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="F34" t="str">
-        <v>3.62</v>
+        <v>3.67</v>
       </c>
       <c r="G34" t="str">
-        <v>3.60</v>
+        <v>3.65</v>
       </c>
       <c r="H34" t="str">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I34" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J34" t="str">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="K34" t="str">
         <v>3.56</v>
       </c>
       <c r="L34" t="str">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="M34" t="str">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="N34" t="str">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="O34" t="str">
+        <v>4.73</v>
+      </c>
+      <c r="P34" t="str">
         <v>4.79</v>
-      </c>
-      <c r="P34" t="str">
-        <v>4.85</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="str">
-        <v>01/07/2026</v>
+        <v>01/13/2026</v>
       </c>
       <c r="C35" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="D35" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="E35" t="str">
-        <v>3.60</v>
+        <v>3.66</v>
       </c>
       <c r="F35" t="str">
-        <v>3.62</v>
+        <v>3.67</v>
       </c>
       <c r="G35" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="H35" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="I35" t="str">
-        <v>3.48</v>
+        <v>3.51</v>
       </c>
       <c r="J35" t="str">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="K35" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="L35" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N35" t="str">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="O35" t="str">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="P35" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="str">
-        <v>01/06/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C36" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D36" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="E36" t="str">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="F36" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G36" t="str">
         <v>3.63</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <v>3.58</v>
       </c>
-      <c r="H36" t="str">
-        <v>3.56</v>
-      </c>
       <c r="I36" t="str">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="J36" t="str">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="K36" t="str">
-        <v>3.54</v>
+        <v>3.59</v>
       </c>
       <c r="L36" t="str">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="M36" t="str">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="N36" t="str">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="O36" t="str">
-        <v>4.80</v>
+        <v>4.78</v>
       </c>
       <c r="P36" t="str">
-        <v>4.86</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="str">
-        <v>01/05/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="D37" t="str">
         <v>3.68</v>
       </c>
       <c r="E37" t="str">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="F37" t="str">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="G37" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="H37" t="str">
         <v>3.57</v>
       </c>
       <c r="I37" t="str">
-        <v>3.47</v>
+        <v>3.52</v>
       </c>
       <c r="J37" t="str">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="K37" t="str">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="L37" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="str">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="N37" t="str">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="O37" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P37" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="str">
-        <v>01/02/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="E38" t="str">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="F38" t="str">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="G38" t="str">
-        <v>3.62</v>
+        <v>3.60</v>
       </c>
       <c r="H38" t="str">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I38" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="J38" t="str">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="K38" t="str">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L38" t="str">
         <v>3.74</v>
@@ -2292,9 +2393,197 @@
         <v>4.19</v>
       </c>
       <c r="O38" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P38" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="M39" t="str">
+        <v>3.91</v>
+      </c>
+      <c r="N39" t="str">
+        <v>4.15</v>
+      </c>
+      <c r="O39" t="str">
+        <v>4.76</v>
+      </c>
+      <c r="P39" t="str">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3.63</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K40" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="L40" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M40" t="str">
+        <v>3.93</v>
+      </c>
+      <c r="N40" t="str">
+        <v>4.18</v>
+      </c>
+      <c r="O40" t="str">
+        <v>4.80</v>
+      </c>
+      <c r="P40" t="str">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="C41" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="D41" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="G41" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="H41" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="I41" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J41" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K41" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L41" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M41" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N41" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O41" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P41" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C42" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D42" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E42" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F42" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G42" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H42" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I42" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J42" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K42" t="str">
+        <v>3.55</v>
+      </c>
+      <c r="L42" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="M42" t="str">
+        <v>3.95</v>
+      </c>
+      <c r="N42" t="str">
+        <v>4.19</v>
+      </c>
+      <c r="O42" t="str">
         <v>4.81</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P42" t="str">
         <v>4.86</v>
       </c>
     </row>
@@ -2308,21 +2597,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5">
+        <f ca="1">RAND()</f>
+        <v>8.1409558007453198E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" ca="1" si="0">RAND()</f>
+        <v>0.15489520166921378</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80411364067755431</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xll.\FI.INSTRUMENT(C4:E4,C5:E5)</f>
+        <v>3180408383472</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7:E8" ca="1">_xll.FI.INSTRUMENT(C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8">
+        <f ca="1"/>
+        <v>8.1409558007453198E-2</v>
+      </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>0.15489520166921378</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>0.80411364067755431</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7, C8)</f>
+        <v>3180408384768</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" cm="1">
+        <f t="array" aca="1" ref="C10:C11" ca="1">_xll.FI.INSTRUMENT(C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11">
+        <f ca="1"/>
+        <v>8.1409558007453198E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xll.\FI.INSTRUMENT.BOND(E7, C8)</f>
+        <v>3180409087472</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" cm="1">
+        <f t="array" aca="1" ref="C13:H14" ca="1">_xll.FI.INSTRUMENT(C12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f ca="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f ca="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H13">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14">
+        <f ca="1"/>
+        <v>4.0704779003726599E-2</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>4.0704779003726599E-2</v>
+      </c>
+      <c r="E14">
+        <f ca="1"/>
+        <v>4.0704779003726599E-2</v>
+      </c>
+      <c r="F14">
+        <f ca="1"/>
+        <v>4.0704779003726599E-2</v>
+      </c>
+      <c r="G14">
+        <f ca="1"/>
+        <v>4.0704779003726599E-2</v>
+      </c>
+      <c r="H14">
+        <f ca="1"/>
+        <v>1.0407047790037267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,17 +2767,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.05078125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5">
+        <f ca="1">RAND()</f>
+        <v>0.81829607788119041</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" ca="1" si="0">RAND()</f>
+        <v>1.5607976920133049E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74447728905866351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xll.\FI.CURVE.PWFLAT(C4:E4,C5:E5)</f>
+        <v>3180408379728</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7:E8" ca="1">_xll.FI.CURVE.PWFLAT(C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8">
+        <f ca="1"/>
+        <v>0.81829607788119041</v>
+      </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>1.5607976920133049E-2</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>0.74447728905866351</v>
       </c>
     </row>
   </sheetData>
@@ -2351,35 +2853,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.578125" customWidth="1"/>
+    <col min="6" max="6" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.68359375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" cm="1">
+        <f t="array" ref="L1">_xll.XLL.ALERT.LEVEL(7)</f>
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" cm="1">
+        <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP.(F3:F16, E3:E16)</f>
+        <v>1420777732160</v>
+      </c>
+      <c r="J2">
+        <f>(1-E3)/C3</f>
+        <v>3.7641041666666375E-2</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">_xll.\FI.CURVE.PWFLAT(C16,J2)</f>
+        <v>1420774234944</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">_xll.FI.VALUATION.PRESENT(F3,K2)</f>
+        <v>0.99374123133375092</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <f>1/12</f>
@@ -2389,16 +2917,17 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E3">
-        <f>1-D3*C3/360</f>
-        <v>0.99999141203703701</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
+        <f>1-D3*C3*365.25/360</f>
+        <v>0.9968632465277778</v>
+      </c>
+      <c r="F3" s="6" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3, E3)</f>
+        <v>1420777726400</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2408,19 +2937,20 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
-        <v>0.99998701388888889</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+        <f t="shared" ref="E4:E9" si="0">1-D4*C4*365.25/360</f>
+        <v>0.99525682291666662</v>
+      </c>
+      <c r="F4" s="6" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4, E4)</f>
+        <v>1420777729568</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <f>2/12</f>
@@ -2431,24 +2961,25 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99998273148148153</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0.99369267361111113</v>
+      </c>
+      <c r="F5" s="6" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5, E5)</f>
+        <v>1420777729424</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f>3/12</f>
@@ -2459,10 +2990,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99997430555555555</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
+        <v>0.99061510416666665</v>
+      </c>
+      <c r="F6" s="6" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6, E6)</f>
+        <v>1420777727408</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,10 +3003,22 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($H$2,I6)</f>
+        <v>8.3460693698164028E-8</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($H$2,I6)</f>
+        <v>8.3460693698164028E-8</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6:L7">_xll.FI.CURVE.PWFLAT(K2)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <f>4/12</f>
@@ -2485,10 +3029,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99996574074074074</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+        <v>0.98748680555555557</v>
+      </c>
+      <c r="F7" s="6" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7, E7)</f>
+        <v>1420777720928</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2496,10 +3041,21 @@
       <c r="I7">
         <v>0.1</v>
       </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($H$2,I7)</f>
+        <v>4.1721652237015836E-8</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($H$2,I7)</f>
+        <v>-1.6697355506872497E-7</v>
+      </c>
+      <c r="L7">
+        <v>3.7641041666666375E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f>6/12</f>
@@ -2510,18 +3066,27 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>0.98173750000000004</v>
+      </c>
+      <c r="F8" s="6" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8, E8)</f>
+        <v>1420777733312</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($H$2,I8)</f>
+        <v>4.3424254267685928E-12</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($H$2,I8)</f>
+        <v>-1.7441991173338983E-11</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2531,21 +3096,34 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99990305555555559</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+        <v>0.96459104166666665</v>
+      </c>
+      <c r="F9" s="6" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9, E9)</f>
+        <v>1420777725680</v>
+      </c>
+      <c r="G9">
+        <f>1-E9</f>
+        <v>3.5408958333333351E-2</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($H$2,I9)</f>
+        <v>-3.6687945156480715E-15</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($H$2,I9)</f>
+        <v>5.0276699170717101E-14</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2556,16 +3134,25 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="6" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10, D10)</f>
+        <v>1420767636448</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($H$2,I10)</f>
+        <v>7.630325126344243E-16</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($H$2,I10)</f>
+        <v>-4.0505791891356252E-15</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2576,16 +3163,25 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" s="6" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11, D11)</f>
+        <v>1420767631488</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($H$2,I11)</f>
+        <v>-1.9968982771958548E-16</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($H$2,I11)</f>
+        <v>-4.0505791891356252E-15</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2596,16 +3192,25 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" s="6" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12, D12)</f>
+        <v>1420767630528</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($H$2,I12)</f>
+        <v>-1.1072811599244315E-16</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($H$2,I12)</f>
+        <v>3.3408044264326864E-16</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -2616,16 +3221,25 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" s="6" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13, D13)</f>
+        <v>1420767634048</v>
       </c>
       <c r="I13">
         <v>0.7</v>
       </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($H$2,I13)</f>
+        <v>-4.7184036187341466E-17</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($H$2,I13)</f>
+        <v>3.3408044264326864E-16</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2636,16 +3250,25 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="6" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14, D14)</f>
+        <v>1420767629408</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($H$2,I14)</f>
+        <v>4.7402366648479463E-19</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($H$2,I14)</f>
+        <v>3.3408044264326864E-16</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2656,16 +3279,25 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" s="6" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15, D15)</f>
+        <v>1420767634688</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($H$2,I15)</f>
+        <v>3.75414035527941E-17</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($H$2,I15)</f>
+        <v>3.3408044264326864E-16</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -2676,301 +3308,774 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" s="6" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16, D16)</f>
+        <v>1420767634528</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($H$2,I16)</f>
+        <v>6.7195307461841584E-17</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($H$2,I16)</f>
+        <v>3.3408044264326864E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($H$2,I17)</f>
+        <v>2.3341709923999716E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($H$2,I17)</f>
+        <v>7.0025129771999012E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($H$2,I18)</f>
+        <v>3.5012564885999541E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($H$2,I18)</f>
+        <v>7.0025129771999012E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($H$2,I19)</f>
+        <v>3.5076070258772921E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($H$2,I19)</f>
+        <v>3.5330091749866434E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($H$2,I20)</f>
+        <v>3.5118407173955174E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($H$2,I20)</f>
+        <v>3.5330091749866434E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($H$2,I21)</f>
+        <v>3.5656493243924343E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($H$2,I21)</f>
+        <v>3.888500966373936E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($H$2,I22)</f>
+        <v>3.6060057796401222E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($H$2,I22)</f>
+        <v>3.888500966373936E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($H$2,I23)</f>
+        <v>3.6373941337216574E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($H$2,I23)</f>
+        <v>3.888500966373936E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($H$2,I24)</f>
+        <v>3.6625048169868848E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($H$2,I24)</f>
+        <v>3.888500966373936E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($H$2,I25)</f>
+        <v>3.7287617455359787E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($H$2,I25)</f>
+        <v>4.3913310310269189E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($H$2,I26)</f>
+        <v>3.7839758526602235E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($H$2,I26)</f>
+        <v>4.3913310310269189E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($H$2,I27)</f>
+        <v>3.8306954817653546E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($H$2,I27)</f>
+        <v>4.3913310310269189E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($H$2,I28)</f>
+        <v>3.8707408781411802E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($H$2,I28)</f>
+        <v>4.3913310310269189E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($H$2,I29)</f>
+        <v>3.9263487420600027E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($H$2,I29)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($H$2,I30)</f>
+        <v>3.9750056229889731E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($H$2,I30)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($H$2,I31)</f>
+        <v>4.0179381649851229E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($H$2,I31)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($H$2,I32)</f>
+        <v>4.0561004245372567E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($H$2,I32)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($H$2,I33)</f>
+        <v>4.0902456041365338E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($H$2,I33)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($H$2,I34)</f>
+        <v>4.1209762657758831E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($H$2,I34)</f>
+        <v>4.7048588369235242E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($H$2,I35)</f>
+        <v>4.1863573592166539E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($H$2,I35)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($H$2,I36)</f>
+        <v>4.2457947168900806E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($H$2,I36)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($H$2,I37)</f>
+        <v>4.3000636086788627E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($H$2,I37)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($H$2,I38)</f>
+        <v>4.349810092818579E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($H$2,I38)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($H$2,I39)</f>
+        <v>4.3955768582271182E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($H$2,I39)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($H$2,I40)</f>
+        <v>4.4378231032196166E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($H$2,I40)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($H$2,I41)</f>
+        <v>4.4769399967311878E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($H$2,I41)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($H$2,I42)</f>
+        <v>4.5132628264205055E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($H$2,I42)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($H$2,I43)</f>
+        <v>4.5470806333726278E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($H$2,I43)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($H$2,I44)</f>
+        <v>4.5786439198612756E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($H$2,I44)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($H$2,I45)</f>
+        <v>4.6081708652861389E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($H$2,I45)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($H$2,I46)</f>
+        <v>4.6358523766219496E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($H$2,I46)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($H$2,I47)</f>
+        <v>4.6618562206040742E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($H$2,I47)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($H$2,I48)</f>
+        <v>4.6863304267048975E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($H$2,I48)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($H$2,I49)</f>
+        <v>4.709406106742816E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($H$2,I49)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($H$2,I50)</f>
+        <v>4.731199804556406E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($H$2,I50)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($H$2,I51)</f>
+        <v>4.7518154646503427E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($H$2,I51)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($H$2,I52)</f>
+        <v>4.7713460900024929E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($H$2,I52)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($H$2,I53)</f>
+        <v>4.7898751448237645E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($H$2,I53)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($H$2,I54)</f>
+        <v>4.8074777469039716E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($H$2,I54)</f>
+        <v>5.4939792280320601E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($H$2,I55)</f>
+        <v>4.8101302154853046E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($H$2,I55)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($H$2,I56)</f>
+        <v>4.812656376038954E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($H$2,I56)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($H$2,I57)</f>
+        <v>4.8150650407529007E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($H$2,I57)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($H$2,I58)</f>
+        <v>4.817364220707121E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($H$2,I58)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($H$2,I59)</f>
+        <v>4.8195612148855982E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($H$2,I59)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($H$2,I60)</f>
+        <v>4.8216626875780558E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($H$2,I60)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($H$2,I61)</f>
+        <v>4.8236747359006203E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($H$2,I61)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($H$2,I62)</f>
+        <v>4.8256029488764125E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($H$2,I62)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($H$2,I63)</f>
+        <v>4.8274524592817634E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($H$2,I63)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($H$2,I64)</f>
+        <v>4.8292279892709004E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($H$2,I64)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($H$2,I65)</f>
+        <v>4.8309338906330129E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($H$2,I65)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($H$2,I66)</f>
+        <v>4.8325741804042741E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($H$2,I66)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($H$2,I67)</f>
+        <v>4.8341525724483178E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($H$2,I67)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($H$2,I68)</f>
+        <v>4.8356725055277688E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($H$2,I68)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($H$2,I69)</f>
+        <v>4.8371371683134198E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($H$2,I69)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($H$2,I70)</f>
+        <v>4.8385495217138703E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($H$2,I70)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($H$2,I71)</f>
+        <v>4.8399123188546549E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($H$2,I71)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($H$2,I72)</f>
+        <v>4.8412281229905853E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($H$2,I72)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($H$2,I73)</f>
+        <v>4.8424993235964844E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($H$2,I73)</f>
+        <v>4.9162289587386172E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I74">
         <v>30</v>
+      </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($H$2,I74)</f>
+        <v>4.8437281508488535E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($H$2,I74)</f>
+        <v>4.9162289587386172E-2</v>
       </c>
     </row>
   </sheetData>
